--- a/rnaSample/rnaSample_2651.xlsx
+++ b/rnaSample/rnaSample_2651.xlsx
@@ -28,7 +28,7 @@
     <t xml:space="preserve">harvester</t>
   </si>
   <si>
-    <t xml:space="preserve">biosampleNumber</t>
+    <t xml:space="preserve">bioSampleNumber</t>
   </si>
   <si>
     <t xml:space="preserve">rnaDate</t>
@@ -65,7 +65,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -95,12 +95,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -161,7 +155,7 @@
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -184,8 +178,8 @@
   </sheetPr>
   <dimension ref="A1:H45"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A39" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2:G45"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -193,7 +187,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.67"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>

--- a/rnaSample/rnaSample_2651.xlsx
+++ b/rnaSample/rnaSample_2651.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hollybrown/database_files/rnaSample/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{507677B9-DB30-254E-AC79-BCF0F96750A0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FCE074B-7D5F-C143-8DFA-1FB154DDE991}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="16380" windowHeight="18920" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -57,13 +57,13 @@
     <t>TRIzol</t>
   </si>
   <si>
-    <t>01.09.17</t>
-  </si>
-  <si>
     <t>H.BROWN</t>
   </si>
   <si>
     <t>False</t>
+  </si>
+  <si>
+    <t>01.09.18</t>
   </si>
 </sst>
 </file>
@@ -445,8 +445,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B45"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24:D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -485,7 +485,7 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -494,7 +494,7 @@
         <v>8</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -503,7 +503,7 @@
         <v>9</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -511,7 +511,7 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -520,7 +520,7 @@
         <v>8</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F3">
         <v>2</v>
@@ -529,7 +529,7 @@
         <v>9</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -537,7 +537,7 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C4">
         <v>3</v>
@@ -546,7 +546,7 @@
         <v>8</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F4">
         <v>3</v>
@@ -555,7 +555,7 @@
         <v>9</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -563,7 +563,7 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C5">
         <v>4</v>
@@ -572,7 +572,7 @@
         <v>8</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F5">
         <v>4</v>
@@ -581,7 +581,7 @@
         <v>9</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -589,7 +589,7 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C6">
         <v>5</v>
@@ -598,7 +598,7 @@
         <v>8</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F6">
         <v>5</v>
@@ -607,7 +607,7 @@
         <v>9</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -615,7 +615,7 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C7">
         <v>6</v>
@@ -624,7 +624,7 @@
         <v>8</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F7">
         <v>6</v>
@@ -633,7 +633,7 @@
         <v>9</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
@@ -641,7 +641,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C8">
         <v>7</v>
@@ -650,7 +650,7 @@
         <v>8</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F8">
         <v>7</v>
@@ -659,7 +659,7 @@
         <v>9</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
@@ -667,7 +667,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C9">
         <v>8</v>
@@ -676,7 +676,7 @@
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F9">
         <v>8</v>
@@ -685,7 +685,7 @@
         <v>9</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -693,7 +693,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C10">
         <v>9</v>
@@ -702,7 +702,7 @@
         <v>8</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F10">
         <v>9</v>
@@ -711,7 +711,7 @@
         <v>9</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
@@ -719,7 +719,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C11">
         <v>10</v>
@@ -728,7 +728,7 @@
         <v>8</v>
       </c>
       <c r="E11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F11">
         <v>10</v>
@@ -737,7 +737,7 @@
         <v>9</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
@@ -745,7 +745,7 @@
         <v>8</v>
       </c>
       <c r="B12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C12">
         <v>11</v>
@@ -754,7 +754,7 @@
         <v>8</v>
       </c>
       <c r="E12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F12">
         <v>11</v>
@@ -763,7 +763,7 @@
         <v>9</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
@@ -771,7 +771,7 @@
         <v>8</v>
       </c>
       <c r="B13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C13">
         <v>12</v>
@@ -780,7 +780,7 @@
         <v>8</v>
       </c>
       <c r="E13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F13">
         <v>12</v>
@@ -789,7 +789,7 @@
         <v>9</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
@@ -797,7 +797,7 @@
         <v>8</v>
       </c>
       <c r="B14" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C14">
         <v>13</v>
@@ -806,7 +806,7 @@
         <v>8</v>
       </c>
       <c r="E14" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F14">
         <v>13</v>
@@ -815,7 +815,7 @@
         <v>9</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
@@ -823,7 +823,7 @@
         <v>8</v>
       </c>
       <c r="B15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C15">
         <v>14</v>
@@ -832,7 +832,7 @@
         <v>8</v>
       </c>
       <c r="E15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F15">
         <v>14</v>
@@ -841,7 +841,7 @@
         <v>9</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
@@ -849,7 +849,7 @@
         <v>8</v>
       </c>
       <c r="B16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C16">
         <v>15</v>
@@ -858,7 +858,7 @@
         <v>8</v>
       </c>
       <c r="E16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F16">
         <v>15</v>
@@ -867,7 +867,7 @@
         <v>9</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
@@ -875,7 +875,7 @@
         <v>8</v>
       </c>
       <c r="B17" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C17">
         <v>16</v>
@@ -884,7 +884,7 @@
         <v>8</v>
       </c>
       <c r="E17" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F17">
         <v>16</v>
@@ -893,7 +893,7 @@
         <v>9</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
@@ -901,7 +901,7 @@
         <v>8</v>
       </c>
       <c r="B18" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C18">
         <v>17</v>
@@ -910,7 +910,7 @@
         <v>8</v>
       </c>
       <c r="E18" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F18">
         <v>17</v>
@@ -919,7 +919,7 @@
         <v>9</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
@@ -927,7 +927,7 @@
         <v>8</v>
       </c>
       <c r="B19" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C19">
         <v>18</v>
@@ -936,7 +936,7 @@
         <v>8</v>
       </c>
       <c r="E19" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F19">
         <v>18</v>
@@ -945,7 +945,7 @@
         <v>9</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
@@ -953,7 +953,7 @@
         <v>8</v>
       </c>
       <c r="B20" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C20">
         <v>19</v>
@@ -962,7 +962,7 @@
         <v>8</v>
       </c>
       <c r="E20" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F20">
         <v>19</v>
@@ -971,7 +971,7 @@
         <v>9</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
@@ -979,7 +979,7 @@
         <v>8</v>
       </c>
       <c r="B21" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C21">
         <v>20</v>
@@ -988,7 +988,7 @@
         <v>8</v>
       </c>
       <c r="E21" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F21">
         <v>20</v>
@@ -997,7 +997,7 @@
         <v>9</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
@@ -1005,7 +1005,7 @@
         <v>8</v>
       </c>
       <c r="B22" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C22">
         <v>21</v>
@@ -1014,7 +1014,7 @@
         <v>8</v>
       </c>
       <c r="E22" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F22">
         <v>21</v>
@@ -1023,7 +1023,7 @@
         <v>9</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
@@ -1031,7 +1031,7 @@
         <v>8</v>
       </c>
       <c r="B23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C23">
         <v>22</v>
@@ -1040,7 +1040,7 @@
         <v>8</v>
       </c>
       <c r="E23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F23">
         <v>22</v>
@@ -1049,24 +1049,24 @@
         <v>9</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B24" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C24">
         <v>23</v>
       </c>
       <c r="D24" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E24" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F24">
         <v>23</v>
@@ -1075,24 +1075,24 @@
         <v>9</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B25" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C25">
         <v>24</v>
       </c>
       <c r="D25" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E25" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F25">
         <v>24</v>
@@ -1101,24 +1101,24 @@
         <v>9</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B26" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C26">
         <v>25</v>
       </c>
       <c r="D26" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E26" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F26">
         <v>25</v>
@@ -1127,24 +1127,24 @@
         <v>9</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B27" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C27">
         <v>26</v>
       </c>
       <c r="D27" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E27" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F27">
         <v>26</v>
@@ -1153,24 +1153,24 @@
         <v>9</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B28" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C28">
         <v>27</v>
       </c>
       <c r="D28" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E28" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F28">
         <v>27</v>
@@ -1179,24 +1179,24 @@
         <v>9</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B29" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C29">
         <v>28</v>
       </c>
       <c r="D29" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E29" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F29">
         <v>28</v>
@@ -1205,24 +1205,24 @@
         <v>9</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B30" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C30">
         <v>29</v>
       </c>
       <c r="D30" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E30" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F30">
         <v>29</v>
@@ -1231,24 +1231,24 @@
         <v>9</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B31" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C31">
         <v>30</v>
       </c>
       <c r="D31" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E31" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F31">
         <v>30</v>
@@ -1257,24 +1257,24 @@
         <v>9</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B32" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C32">
         <v>31</v>
       </c>
       <c r="D32" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E32" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F32">
         <v>31</v>
@@ -1283,24 +1283,24 @@
         <v>9</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B33" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C33">
         <v>32</v>
       </c>
       <c r="D33" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E33" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F33">
         <v>32</v>
@@ -1309,24 +1309,24 @@
         <v>9</v>
       </c>
       <c r="H33" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B34" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C34">
         <v>33</v>
       </c>
       <c r="D34" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E34" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F34">
         <v>33</v>
@@ -1335,24 +1335,24 @@
         <v>9</v>
       </c>
       <c r="H34" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B35" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C35">
         <v>34</v>
       </c>
       <c r="D35" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E35" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F35">
         <v>34</v>
@@ -1361,24 +1361,24 @@
         <v>9</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B36" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C36">
         <v>35</v>
       </c>
       <c r="D36" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E36" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F36">
         <v>35</v>
@@ -1387,24 +1387,24 @@
         <v>9</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B37" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C37">
         <v>36</v>
       </c>
       <c r="D37" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E37" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F37">
         <v>36</v>
@@ -1413,24 +1413,24 @@
         <v>9</v>
       </c>
       <c r="H37" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B38" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C38">
         <v>37</v>
       </c>
       <c r="D38" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E38" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F38">
         <v>37</v>
@@ -1439,24 +1439,24 @@
         <v>9</v>
       </c>
       <c r="H38" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B39" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C39">
         <v>38</v>
       </c>
       <c r="D39" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E39" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F39">
         <v>38</v>
@@ -1465,24 +1465,24 @@
         <v>9</v>
       </c>
       <c r="H39" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B40" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C40">
         <v>39</v>
       </c>
       <c r="D40" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E40" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F40">
         <v>39</v>
@@ -1491,24 +1491,24 @@
         <v>9</v>
       </c>
       <c r="H40" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B41" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C41">
         <v>40</v>
       </c>
       <c r="D41" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E41" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F41">
         <v>40</v>
@@ -1517,24 +1517,24 @@
         <v>9</v>
       </c>
       <c r="H41" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B42" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C42">
         <v>41</v>
       </c>
       <c r="D42" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E42" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F42">
         <v>41</v>
@@ -1543,24 +1543,24 @@
         <v>9</v>
       </c>
       <c r="H42" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B43" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C43">
         <v>42</v>
       </c>
       <c r="D43" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E43" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F43">
         <v>42</v>
@@ -1569,24 +1569,24 @@
         <v>9</v>
       </c>
       <c r="H43" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B44" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C44">
         <v>43</v>
       </c>
       <c r="D44" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E44" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F44">
         <v>43</v>
@@ -1595,24 +1595,24 @@
         <v>9</v>
       </c>
       <c r="H44" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B45" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C45">
         <v>44</v>
       </c>
       <c r="D45" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E45" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F45">
         <v>44</v>
@@ -1621,7 +1621,7 @@
         <v>9</v>
       </c>
       <c r="H45" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
